--- a/files/01_tanda_terima_1300_400251_PT_Pontianak_Juli_2023.xlsx
+++ b/files/01_tanda_terima_1300_400251_PT_Pontianak_Juli_2023.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Projects2023\omsyarif\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B37B0F-813F-419C-B27D-D554DC48417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tanda Terima" sheetId="1" r:id="rId4"/>
+    <sheet name="Tanda Terima" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Tanda Terima'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
   <si>
     <t>TANDA TERIMA TUNJANGAN KHUSUS KINERJA</t>
   </si>
@@ -819,51 +825,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.\-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="11"/>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <sz val="9"/>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -873,7 +863,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -887,6 +883,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -901,6 +898,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -915,6 +913,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -929,6 +928,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -943,6 +943,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -957,6 +958,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -971,6 +973,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -985,6 +988,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -999,105 +1003,116 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="4" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1385,3041 +1400,3030 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="true" style="0"/>
-    <col min="2" max="2" width="23" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="4" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6" customWidth="true" style="0"/>
-    <col min="9" max="9" width="0" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" customWidth="true" style="0"/>
-    <col min="11" max="11" width="5" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5" customWidth="true" style="0"/>
-    <col min="13" max="13" width="17" customWidth="true" style="0"/>
-    <col min="14" max="14" width="17" customWidth="true" style="0"/>
-    <col min="15" max="15" width="17" customWidth="true" style="0"/>
-    <col min="16" max="16" width="17" customWidth="true" style="0"/>
-    <col min="17" max="17" width="17" customWidth="true" style="0"/>
-    <col min="18" max="18" width="17" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10" customWidth="true" style="0"/>
-    <col min="20" max="20" width="13" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="12" width="5" customWidth="1"/>
+    <col min="13" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+    </row>
+    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3" t="s"/>
-      <c r="B6" s="5" t="s"/>
-      <c r="C6" s="5" t="s"/>
-      <c r="D6" s="5" t="s"/>
-      <c r="E6" s="5" t="s"/>
-      <c r="F6" s="5" t="s"/>
-      <c r="G6" s="5" t="s"/>
-      <c r="H6" s="5" t="s"/>
-      <c r="I6" s="5" t="s"/>
-      <c r="J6" s="5" t="s">
+      <c r="T5" s="28"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="5" t="s"/>
-      <c r="S6" s="5" t="s"/>
-      <c r="T6" s="7" t="s"/>
-    </row>
-    <row r="7" spans="1:20" customHeight="1" ht="40">
-      <c r="A7" s="8">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>14</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="26" t="s"/>
-      <c r="J7" s="20">
+      <c r="I7" s="23"/>
+      <c r="J7" s="18">
         <v>19280000</v>
       </c>
-      <c r="K7" s="23">
-        <v>0</v>
-      </c>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
         <v>19280000</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>2668913</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="18">
         <v>21948913</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="18">
         <v>2668913</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="18">
         <v>19280000</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:20" customHeight="1" ht="40">
-      <c r="A8" s="9">
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="24">
         <v>12</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="27" t="s"/>
-      <c r="J8" s="21">
+      <c r="I8" s="24"/>
+      <c r="J8" s="19">
         <v>13920000</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-      <c r="L8" s="24">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
         <v>13920000</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>1757242</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="19">
         <v>15677242</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="19">
         <v>1757242</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="19">
         <v>13920000</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="18" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:20" customHeight="1" ht="40">
-      <c r="A9" s="9">
+    <row r="9" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="24">
         <v>12</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="27" t="s"/>
-      <c r="J9" s="21">
+      <c r="I9" s="24"/>
+      <c r="J9" s="19">
         <v>13920000</v>
       </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21">
-        <v>0</v>
-      </c>
-      <c r="N9" s="21">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
         <v>13920000</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
         <v>1668171</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="19">
         <v>15588171</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="19">
         <v>1668171</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="19">
         <v>13920000</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" customHeight="1" ht="40">
-      <c r="A10" s="9">
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="24">
         <v>10</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="27" t="s"/>
-      <c r="J10" s="21">
+      <c r="I10" s="24"/>
+      <c r="J10" s="19">
         <v>9500000</v>
       </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="24">
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
-        <v>0</v>
-      </c>
-      <c r="N10" s="21">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
         <v>9500000</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="19">
         <v>805108</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="19">
         <v>10305108</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="19">
         <v>805108</v>
       </c>
-      <c r="R10" s="21">
+      <c r="R10" s="19">
         <v>9500000</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="18" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" customHeight="1" ht="40">
-      <c r="A11" s="9">
+    <row r="11" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="24">
         <v>10</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="27" t="s"/>
-      <c r="J11" s="21">
+      <c r="I11" s="24"/>
+      <c r="J11" s="19">
         <v>9500000</v>
       </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="24">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21">
-        <v>0</v>
-      </c>
-      <c r="N11" s="21">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
         <v>9500000</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="19">
         <v>857721</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="19">
         <v>10357721</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="19">
         <v>857721</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="19">
         <v>9500000</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" customHeight="1" ht="40">
-      <c r="A12" s="9">
+      <c r="T11" s="16"/>
+    </row>
+    <row r="12" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="24">
         <v>10</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="27" t="s"/>
-      <c r="J12" s="21">
+      <c r="I12" s="24"/>
+      <c r="J12" s="19">
         <v>9500000</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>3</v>
       </c>
-      <c r="L12" s="24">
-        <v>0</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="19">
         <v>142500</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="19">
         <v>9357500</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="19">
         <v>890246</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="19">
         <v>10247746</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="19">
         <v>890246</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="19">
         <v>9357500</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="18" t="s">
+      <c r="S12" s="13"/>
+      <c r="T12" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:20" customHeight="1" ht="40">
-      <c r="A13" s="9">
+    <row r="13" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="24">
         <v>10</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="27" t="s"/>
-      <c r="J13" s="21">
+      <c r="I13" s="24"/>
+      <c r="J13" s="19">
         <v>9500000</v>
       </c>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
-      <c r="L13" s="24">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
-        <v>0</v>
-      </c>
-      <c r="N13" s="21">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>0</v>
+      </c>
+      <c r="N13" s="19">
         <v>9500000</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="19">
         <v>884996</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="19">
         <v>10384996</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="19">
         <v>884996</v>
       </c>
-      <c r="R13" s="21">
+      <c r="R13" s="19">
         <v>9500000</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" customHeight="1" ht="40">
-      <c r="A14" s="9">
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="24">
         <v>10</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="27" t="s"/>
-      <c r="J14" s="21">
+      <c r="I14" s="24"/>
+      <c r="J14" s="19">
         <v>9500000</v>
       </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
-        <v>0</v>
-      </c>
-      <c r="N14" s="21">
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
         <v>9500000</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="19">
         <v>929767</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="19">
         <v>10429767</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="19">
         <v>929767</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="19">
         <v>9500000</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="18" t="s">
+      <c r="S14" s="13"/>
+      <c r="T14" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:20" customHeight="1" ht="40">
-      <c r="A15" s="9">
+    <row r="15" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <v>10</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="27" t="s"/>
-      <c r="J15" s="21">
+      <c r="I15" s="24"/>
+      <c r="J15" s="19">
         <v>9500000</v>
       </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
-      <c r="L15" s="24">
-        <v>0</v>
-      </c>
-      <c r="M15" s="21">
-        <v>0</v>
-      </c>
-      <c r="N15" s="21">
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
         <v>9500000</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="19">
         <v>925971</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="19">
         <v>10425971</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="19">
         <v>925971</v>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="19">
         <v>9500000</v>
       </c>
-      <c r="S15" s="15" t="s">
+      <c r="S15" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" customHeight="1" ht="40">
-      <c r="A16" s="9">
+      <c r="T15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <v>10</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="27" t="s"/>
-      <c r="J16" s="21">
+      <c r="I16" s="24"/>
+      <c r="J16" s="19">
         <v>9500000</v>
       </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="24">
-        <v>0</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0</v>
-      </c>
-      <c r="N16" s="21">
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0</v>
+      </c>
+      <c r="N16" s="19">
         <v>9500000</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O16" s="19">
         <v>948396</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="19">
         <v>10448396</v>
       </c>
-      <c r="Q16" s="21">
+      <c r="Q16" s="19">
         <v>948396</v>
       </c>
-      <c r="R16" s="21">
+      <c r="R16" s="19">
         <v>9500000</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="18" t="s">
+      <c r="S16" s="13"/>
+      <c r="T16" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:20" customHeight="1" ht="40">
-      <c r="A17" s="9">
+    <row r="17" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="24">
         <v>10</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="27" t="s"/>
-      <c r="J17" s="21">
+      <c r="I17" s="24"/>
+      <c r="J17" s="19">
         <v>9500000</v>
       </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <v>0</v>
-      </c>
-      <c r="M17" s="21">
-        <v>0</v>
-      </c>
-      <c r="N17" s="21">
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <v>0</v>
+      </c>
+      <c r="N17" s="19">
         <v>9500000</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <v>805108</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="19">
         <v>10305108</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="19">
         <v>805108</v>
       </c>
-      <c r="R17" s="21">
+      <c r="R17" s="19">
         <v>9500000</v>
       </c>
-      <c r="S17" s="15" t="s">
+      <c r="S17" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="T17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" customHeight="1" ht="40">
-      <c r="A18" s="9">
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="24">
         <v>9</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="27" t="s"/>
-      <c r="J18" s="21">
+      <c r="I18" s="24"/>
+      <c r="J18" s="19">
         <v>9121000</v>
       </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="24">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
-        <v>0</v>
-      </c>
-      <c r="N18" s="21">
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
         <v>9121000</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="19">
         <v>946075</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="19">
         <v>10067075</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="19">
         <v>946075</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="19">
         <v>9121000</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="18" t="s">
+      <c r="S18" s="13"/>
+      <c r="T18" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:20" customHeight="1" ht="40">
-      <c r="A19" s="9">
+    <row r="19" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="24">
         <v>9</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="27" t="s"/>
-      <c r="J19" s="21">
+      <c r="I19" s="24"/>
+      <c r="J19" s="19">
         <v>9121000</v>
       </c>
-      <c r="K19" s="24">
-        <v>0</v>
-      </c>
-      <c r="L19" s="24">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="21">
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
         <v>9121000</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="19">
         <v>777496</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="19">
         <v>9898496</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="19">
         <v>777496</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="19">
         <v>9121000</v>
       </c>
-      <c r="S19" s="15" t="s">
+      <c r="S19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="T19" s="18"/>
-    </row>
-    <row r="20" spans="1:20" customHeight="1" ht="40">
-      <c r="A20" s="9">
+      <c r="T19" s="16"/>
+    </row>
+    <row r="20" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="24">
         <v>9</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="27" t="s"/>
-      <c r="J20" s="21">
+      <c r="I20" s="24"/>
+      <c r="J20" s="19">
         <v>9121000</v>
       </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="21">
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
         <v>9121000</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="19">
         <v>822258</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P20" s="19">
         <v>9943258</v>
       </c>
-      <c r="Q20" s="21">
+      <c r="Q20" s="19">
         <v>822258</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="19">
         <v>9121000</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="18" t="s">
+      <c r="S20" s="13"/>
+      <c r="T20" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:20" customHeight="1" ht="40">
-      <c r="A21" s="9">
+    <row r="21" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="24">
         <v>9</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="27" t="s"/>
-      <c r="J21" s="21">
+      <c r="I21" s="24"/>
+      <c r="J21" s="19">
         <v>9121000</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="22">
         <v>0.5</v>
       </c>
-      <c r="L21" s="24">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
         <v>22803</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N21" s="19">
         <v>9098198</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="19">
         <v>831221</v>
       </c>
-      <c r="P21" s="21">
+      <c r="P21" s="19">
         <v>9929419</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="19">
         <v>831221</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="19">
         <v>9098198</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="T21" s="18"/>
-    </row>
-    <row r="22" spans="1:20" customHeight="1" ht="40">
-      <c r="A22" s="9">
+      <c r="T21" s="16"/>
+    </row>
+    <row r="22" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="24">
         <v>9</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="27" t="s"/>
-      <c r="J22" s="21">
+      <c r="I22" s="24"/>
+      <c r="J22" s="19">
         <v>9121000</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="22">
         <v>3</v>
       </c>
-      <c r="L22" s="24">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
         <v>136815</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="19">
         <v>8984185</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="19">
         <v>866483</v>
       </c>
-      <c r="P22" s="21">
+      <c r="P22" s="19">
         <v>9850668</v>
       </c>
-      <c r="Q22" s="21">
+      <c r="Q22" s="19">
         <v>866483</v>
       </c>
-      <c r="R22" s="21">
+      <c r="R22" s="19">
         <v>8984185</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="18" t="s">
+      <c r="S22" s="13"/>
+      <c r="T22" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:20" customHeight="1" ht="40">
-      <c r="A23" s="9">
+    <row r="23" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="24">
         <v>9</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="27" t="s"/>
-      <c r="J23" s="21">
+      <c r="I23" s="24"/>
+      <c r="J23" s="19">
         <v>9121000</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="22">
         <v>0.5</v>
       </c>
-      <c r="L23" s="24">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
         <v>22803</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N23" s="19">
         <v>9098198</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="19">
         <v>842996</v>
       </c>
-      <c r="P23" s="21">
+      <c r="P23" s="19">
         <v>9941194</v>
       </c>
-      <c r="Q23" s="21">
+      <c r="Q23" s="19">
         <v>842996</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="19">
         <v>9098198</v>
       </c>
-      <c r="S23" s="15" t="s">
+      <c r="S23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="T23" s="18"/>
-    </row>
-    <row r="24" spans="1:20" customHeight="1" ht="40">
-      <c r="A24" s="9">
+      <c r="T23" s="16"/>
+    </row>
+    <row r="24" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="24">
         <v>9</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="27" t="s"/>
-      <c r="J24" s="21">
+      <c r="I24" s="24"/>
+      <c r="J24" s="19">
         <v>9121000</v>
       </c>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="21">
+      <c r="K24" s="22">
+        <v>0</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
         <v>9121000</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="19">
         <v>902671</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P24" s="19">
         <v>10023671</v>
       </c>
-      <c r="Q24" s="21">
+      <c r="Q24" s="19">
         <v>902671</v>
       </c>
-      <c r="R24" s="21">
+      <c r="R24" s="19">
         <v>9121000</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="18" t="s">
+      <c r="S24" s="13"/>
+      <c r="T24" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:20" customHeight="1" ht="40">
-      <c r="A25" s="9">
+    <row r="25" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>19</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="24">
         <v>9</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="27" t="s"/>
-      <c r="J25" s="21">
+      <c r="I25" s="24"/>
+      <c r="J25" s="19">
         <v>9121000</v>
       </c>
-      <c r="K25" s="24">
-        <v>0</v>
-      </c>
-      <c r="L25" s="24">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="21">
+      <c r="K25" s="22">
+        <v>0</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
         <v>9121000</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25" s="19">
         <v>894788</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25" s="19">
         <v>10015788</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25" s="19">
         <v>894788</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25" s="19">
         <v>9121000</v>
       </c>
-      <c r="S25" s="15" t="s">
+      <c r="S25" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="T25" s="18"/>
-    </row>
-    <row r="26" spans="1:20" customHeight="1" ht="40">
-      <c r="A26" s="9">
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>20</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="24">
         <v>9</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="27" t="s"/>
-      <c r="J26" s="21">
+      <c r="I26" s="24"/>
+      <c r="J26" s="19">
         <v>9121000</v>
       </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="21">
+      <c r="K26" s="22">
+        <v>0</v>
+      </c>
+      <c r="L26" s="22">
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
         <v>9121000</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="19">
         <v>901933</v>
       </c>
-      <c r="P26" s="21">
+      <c r="P26" s="19">
         <v>10022933</v>
       </c>
-      <c r="Q26" s="21">
+      <c r="Q26" s="19">
         <v>901933</v>
       </c>
-      <c r="R26" s="21">
+      <c r="R26" s="19">
         <v>9121000</v>
       </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="18" t="s">
+      <c r="S26" s="13"/>
+      <c r="T26" s="16" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:20" customHeight="1" ht="40">
-      <c r="A27" s="9">
+    <row r="27" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>21</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="24">
         <v>9</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="27" t="s"/>
-      <c r="J27" s="21">
+      <c r="I27" s="24"/>
+      <c r="J27" s="19">
         <v>9121000</v>
       </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21">
+      <c r="K27" s="22">
+        <v>0</v>
+      </c>
+      <c r="L27" s="22">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
         <v>9121000</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="19">
         <v>754858</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="19">
         <v>9875858</v>
       </c>
-      <c r="Q27" s="21">
+      <c r="Q27" s="19">
         <v>754858</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="19">
         <v>9121000</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T27" s="18"/>
-    </row>
-    <row r="28" spans="1:20" customHeight="1" ht="40">
-      <c r="A28" s="9">
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>22</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="24">
         <v>9</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="27" t="s"/>
-      <c r="J28" s="21">
+      <c r="I28" s="24"/>
+      <c r="J28" s="19">
         <v>8758000</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="22">
         <v>1.25</v>
       </c>
-      <c r="L28" s="24">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
         <v>54738</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="19">
         <v>8703263</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="19">
         <v>743021</v>
       </c>
-      <c r="P28" s="21">
+      <c r="P28" s="19">
         <v>9446284</v>
       </c>
-      <c r="Q28" s="21">
+      <c r="Q28" s="19">
         <v>743021</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="19">
         <v>8703263</v>
       </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="18" t="s">
+      <c r="S28" s="13"/>
+      <c r="T28" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:20" customHeight="1" ht="40">
-      <c r="A29" s="9">
+    <row r="29" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>23</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="24">
         <v>9</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="27" t="s"/>
-      <c r="J29" s="21">
+      <c r="I29" s="24"/>
+      <c r="J29" s="19">
         <v>8758000</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="22">
         <v>3</v>
       </c>
-      <c r="L29" s="24">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21">
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
         <v>131370</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N29" s="19">
         <v>8626630</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="19">
         <v>677796</v>
       </c>
-      <c r="P29" s="21">
+      <c r="P29" s="19">
         <v>9304426</v>
       </c>
-      <c r="Q29" s="21">
+      <c r="Q29" s="19">
         <v>677796</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="19">
         <v>8626630</v>
       </c>
-      <c r="S29" s="15" t="s">
+      <c r="S29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="T29" s="18"/>
-    </row>
-    <row r="30" spans="1:20" customHeight="1" ht="40">
-      <c r="A30" s="9">
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>24</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="24">
         <v>9</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="27" t="s"/>
-      <c r="J30" s="21">
+      <c r="I30" s="24"/>
+      <c r="J30" s="19">
         <v>8758000</v>
       </c>
-      <c r="K30" s="24">
-        <v>0</v>
-      </c>
-      <c r="L30" s="24">
-        <v>0</v>
-      </c>
-      <c r="M30" s="21">
-        <v>0</v>
-      </c>
-      <c r="N30" s="21">
+      <c r="K30" s="22">
+        <v>0</v>
+      </c>
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0</v>
+      </c>
+      <c r="N30" s="19">
         <v>8758000</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="19">
         <v>830421</v>
       </c>
-      <c r="P30" s="21">
+      <c r="P30" s="19">
         <v>9588421</v>
       </c>
-      <c r="Q30" s="21">
+      <c r="Q30" s="19">
         <v>830421</v>
       </c>
-      <c r="R30" s="21">
+      <c r="R30" s="19">
         <v>8758000</v>
       </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="18" t="s">
+      <c r="S30" s="13"/>
+      <c r="T30" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:20" customHeight="1" ht="40">
-      <c r="A31" s="9">
+    <row r="31" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>25</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="24">
         <v>9</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="27" t="s"/>
-      <c r="J31" s="21">
+      <c r="I31" s="24"/>
+      <c r="J31" s="19">
         <v>8758000</v>
       </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="24">
-        <v>0</v>
-      </c>
-      <c r="M31" s="21">
-        <v>0</v>
-      </c>
-      <c r="N31" s="21">
+      <c r="K31" s="22">
+        <v>0</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+      <c r="N31" s="19">
         <v>8758000</v>
       </c>
-      <c r="O31" s="21">
+      <c r="O31" s="19">
         <v>759758</v>
       </c>
-      <c r="P31" s="21">
+      <c r="P31" s="19">
         <v>9517758</v>
       </c>
-      <c r="Q31" s="21">
+      <c r="Q31" s="19">
         <v>759758</v>
       </c>
-      <c r="R31" s="21">
+      <c r="R31" s="19">
         <v>8758000</v>
       </c>
-      <c r="S31" s="15" t="s">
+      <c r="S31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="T31" s="18"/>
-    </row>
-    <row r="32" spans="1:20" customHeight="1" ht="40">
-      <c r="A32" s="9">
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>26</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="24">
         <v>8</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="27" t="s"/>
-      <c r="J32" s="21">
+      <c r="I32" s="24"/>
+      <c r="J32" s="19">
         <v>8071000</v>
       </c>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
-      <c r="L32" s="24">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21">
-        <v>0</v>
-      </c>
-      <c r="N32" s="21">
+      <c r="K32" s="22">
+        <v>0</v>
+      </c>
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>0</v>
+      </c>
+      <c r="N32" s="19">
         <v>8071000</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32" s="19">
         <v>704646</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32" s="19">
         <v>8775646</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32" s="19">
         <v>704646</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32" s="19">
         <v>8071000</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="18" t="s">
+      <c r="S32" s="13"/>
+      <c r="T32" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:20" customHeight="1" ht="40">
-      <c r="A33" s="9">
+    <row r="33" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>27</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="24">
         <v>8</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="27" t="s"/>
-      <c r="J33" s="21">
+      <c r="I33" s="24"/>
+      <c r="J33" s="19">
         <v>8071000</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="22">
         <v>1</v>
       </c>
-      <c r="L33" s="24">
-        <v>0</v>
-      </c>
-      <c r="M33" s="21">
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
         <v>40355</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="19">
         <v>8030645</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="19">
         <v>512921</v>
       </c>
-      <c r="P33" s="21">
+      <c r="P33" s="19">
         <v>8543566</v>
       </c>
-      <c r="Q33" s="21">
+      <c r="Q33" s="19">
         <v>512921</v>
       </c>
-      <c r="R33" s="21">
+      <c r="R33" s="19">
         <v>8030645</v>
       </c>
-      <c r="S33" s="15" t="s">
+      <c r="S33" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="T33" s="18"/>
-    </row>
-    <row r="34" spans="1:20" customHeight="1" ht="40">
-      <c r="A34" s="9">
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>28</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="24">
         <v>7</v>
       </c>
-      <c r="H34" s="27" t="s">
+      <c r="H34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="27" t="s"/>
-      <c r="J34" s="21">
+      <c r="I34" s="24"/>
+      <c r="J34" s="19">
         <v>5510000</v>
       </c>
-      <c r="K34" s="24">
-        <v>0</v>
-      </c>
-      <c r="L34" s="24">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="21">
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>0</v>
+      </c>
+      <c r="N34" s="19">
         <v>5510000</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="19">
         <v>155450</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="19">
         <v>5665450</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="19">
         <v>155450</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="19">
         <v>5510000</v>
       </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="18" t="s">
+      <c r="S34" s="13"/>
+      <c r="T34" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:20" customHeight="1" ht="40">
-      <c r="A35" s="9">
+    <row r="35" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>29</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="24">
         <v>7</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="27" t="s"/>
-      <c r="J35" s="21">
+      <c r="I35" s="24"/>
+      <c r="J35" s="19">
         <v>5510000</v>
       </c>
-      <c r="K35" s="24">
-        <v>0</v>
-      </c>
-      <c r="L35" s="24">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21">
-        <v>0</v>
-      </c>
-      <c r="N35" s="21">
+      <c r="K35" s="22">
+        <v>0</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
         <v>5510000</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O35" s="19">
         <v>201779</v>
       </c>
-      <c r="P35" s="21">
+      <c r="P35" s="19">
         <v>5711779</v>
       </c>
-      <c r="Q35" s="21">
+      <c r="Q35" s="19">
         <v>201779</v>
       </c>
-      <c r="R35" s="21">
+      <c r="R35" s="19">
         <v>5510000</v>
       </c>
-      <c r="S35" s="15" t="s">
+      <c r="S35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="T35" s="18"/>
-    </row>
-    <row r="36" spans="1:20" customHeight="1" ht="40">
-      <c r="A36" s="9">
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>30</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="24">
         <v>7</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="27" t="s"/>
-      <c r="J36" s="21">
+      <c r="I36" s="24"/>
+      <c r="J36" s="19">
         <v>5510000</v>
       </c>
-      <c r="K36" s="24">
-        <v>0</v>
-      </c>
-      <c r="L36" s="24">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21">
-        <v>0</v>
-      </c>
-      <c r="N36" s="21">
+      <c r="K36" s="22">
+        <v>0</v>
+      </c>
+      <c r="L36" s="22">
+        <v>0</v>
+      </c>
+      <c r="M36" s="19">
+        <v>0</v>
+      </c>
+      <c r="N36" s="19">
         <v>5510000</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="19">
         <v>196033</v>
       </c>
-      <c r="P36" s="21">
+      <c r="P36" s="19">
         <v>5706033</v>
       </c>
-      <c r="Q36" s="21">
+      <c r="Q36" s="19">
         <v>196033</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="19">
         <v>5510000</v>
       </c>
-      <c r="S36" s="15"/>
-      <c r="T36" s="18" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:20" customHeight="1" ht="40">
-      <c r="A37" s="9">
+    <row r="37" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>31</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="24">
         <v>7</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I37" s="27" t="s"/>
-      <c r="J37" s="21">
+      <c r="I37" s="24"/>
+      <c r="J37" s="19">
         <v>5079000</v>
       </c>
-      <c r="K37" s="24">
-        <v>0</v>
-      </c>
-      <c r="L37" s="24">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21">
-        <v>0</v>
-      </c>
-      <c r="N37" s="21">
+      <c r="K37" s="22">
+        <v>0</v>
+      </c>
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
+      <c r="M37" s="19">
+        <v>0</v>
+      </c>
+      <c r="N37" s="19">
         <v>5079000</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="19">
         <v>203971</v>
       </c>
-      <c r="P37" s="21">
+      <c r="P37" s="19">
         <v>5282971</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="Q37" s="19">
         <v>203971</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="19">
         <v>5079000</v>
       </c>
-      <c r="S37" s="15" t="s">
+      <c r="S37" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="T37" s="18"/>
-    </row>
-    <row r="38" spans="1:20" customHeight="1" ht="40">
-      <c r="A38" s="9">
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>32</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="24">
         <v>7</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="27" t="s"/>
-      <c r="J38" s="21">
+      <c r="I38" s="24"/>
+      <c r="J38" s="19">
         <v>5079000</v>
       </c>
-      <c r="K38" s="24">
-        <v>0</v>
-      </c>
-      <c r="L38" s="24">
-        <v>0</v>
-      </c>
-      <c r="M38" s="21">
-        <v>0</v>
-      </c>
-      <c r="N38" s="21">
+      <c r="K38" s="22">
+        <v>0</v>
+      </c>
+      <c r="L38" s="22">
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
+        <v>0</v>
+      </c>
+      <c r="N38" s="19">
         <v>5079000</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="19">
         <v>144875</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="19">
         <v>5223875</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="19">
         <v>144875</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="19">
         <v>5079000</v>
       </c>
-      <c r="S38" s="15"/>
-      <c r="T38" s="18" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:20" customHeight="1" ht="40">
-      <c r="A39" s="9">
+    <row r="39" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>33</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="24">
         <v>7</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="27" t="s"/>
-      <c r="J39" s="21">
+      <c r="I39" s="24"/>
+      <c r="J39" s="19">
         <v>5079000</v>
       </c>
-      <c r="K39" s="24">
-        <v>0</v>
-      </c>
-      <c r="L39" s="24">
-        <v>0</v>
-      </c>
-      <c r="M39" s="21">
-        <v>0</v>
-      </c>
-      <c r="N39" s="21">
+      <c r="K39" s="22">
+        <v>0</v>
+      </c>
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
+        <v>0</v>
+      </c>
+      <c r="N39" s="19">
         <v>5079000</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="19">
         <v>192233</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P39" s="19">
         <v>5271233</v>
       </c>
-      <c r="Q39" s="21">
+      <c r="Q39" s="19">
         <v>192233</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R39" s="19">
         <v>5079000</v>
       </c>
-      <c r="S39" s="15" t="s">
+      <c r="S39" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="T39" s="18"/>
-    </row>
-    <row r="40" spans="1:20" customHeight="1" ht="40">
-      <c r="A40" s="9">
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>34</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="24">
         <v>7</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="27" t="s"/>
-      <c r="J40" s="21">
+      <c r="I40" s="24"/>
+      <c r="J40" s="19">
         <v>5079000</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="22">
         <v>1.5</v>
       </c>
-      <c r="L40" s="24">
-        <v>0</v>
-      </c>
-      <c r="M40" s="21">
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>38093</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="19">
         <v>5040908</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="19">
         <v>173854</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="19">
         <v>5214762</v>
       </c>
-      <c r="Q40" s="21">
+      <c r="Q40" s="19">
         <v>173854</v>
       </c>
-      <c r="R40" s="21">
+      <c r="R40" s="19">
         <v>5040908</v>
       </c>
-      <c r="S40" s="15"/>
-      <c r="T40" s="18" t="s">
+      <c r="S40" s="13"/>
+      <c r="T40" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:20" customHeight="1" ht="40">
-      <c r="A41" s="9">
+    <row r="41" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>35</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="24">
         <v>7</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="27" t="s"/>
-      <c r="J41" s="21">
+      <c r="I41" s="24"/>
+      <c r="J41" s="19">
         <v>5079000</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="22">
         <v>6.5</v>
       </c>
-      <c r="L41" s="24">
-        <v>0</v>
-      </c>
-      <c r="M41" s="21">
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
         <v>165068</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="19">
         <v>4913933</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="19">
         <v>163788</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="19">
         <v>5077721</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="19">
         <v>163788</v>
       </c>
-      <c r="R41" s="21">
+      <c r="R41" s="19">
         <v>4913933</v>
       </c>
-      <c r="S41" s="15" t="s">
+      <c r="S41" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T41" s="18"/>
-    </row>
-    <row r="42" spans="1:20" customHeight="1" ht="40">
-      <c r="A42" s="9">
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>36</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="24">
         <v>7</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="27" t="s"/>
-      <c r="J42" s="21">
+      <c r="I42" s="24"/>
+      <c r="J42" s="19">
         <v>5079000</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="22">
         <v>0.5</v>
       </c>
-      <c r="L42" s="24">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21">
+      <c r="L42" s="22">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
         <v>12698</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N42" s="19">
         <v>5066303</v>
       </c>
-      <c r="O42" s="21">
+      <c r="O42" s="19">
         <v>144275</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="19">
         <v>5210578</v>
       </c>
-      <c r="Q42" s="21">
+      <c r="Q42" s="19">
         <v>144275</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R42" s="19">
         <v>5066303</v>
       </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="18" t="s">
+      <c r="S42" s="13"/>
+      <c r="T42" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43" spans="1:20" customHeight="1" ht="40">
-      <c r="A43" s="9">
+    <row r="43" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>37</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="24">
         <v>7</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I43" s="27" t="s"/>
-      <c r="J43" s="21">
+      <c r="I43" s="24"/>
+      <c r="J43" s="19">
         <v>5079000</v>
       </c>
-      <c r="K43" s="24">
-        <v>0</v>
-      </c>
-      <c r="L43" s="24">
-        <v>0</v>
-      </c>
-      <c r="M43" s="21">
-        <v>0</v>
-      </c>
-      <c r="N43" s="21">
+      <c r="K43" s="22">
+        <v>0</v>
+      </c>
+      <c r="L43" s="22">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
         <v>5079000</v>
       </c>
-      <c r="O43" s="21">
+      <c r="O43" s="19">
         <v>173521</v>
       </c>
-      <c r="P43" s="21">
+      <c r="P43" s="19">
         <v>5252521</v>
       </c>
-      <c r="Q43" s="21">
+      <c r="Q43" s="19">
         <v>173521</v>
       </c>
-      <c r="R43" s="21">
+      <c r="R43" s="19">
         <v>5079000</v>
       </c>
-      <c r="S43" s="15" t="s">
+      <c r="S43" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="T43" s="18"/>
-    </row>
-    <row r="44" spans="1:20" customHeight="1" ht="40">
-      <c r="A44" s="9">
+      <c r="T43" s="16"/>
+    </row>
+    <row r="44" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>38</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="24">
         <v>7</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="27" t="s"/>
-      <c r="J44" s="21">
+      <c r="I44" s="24"/>
+      <c r="J44" s="19">
         <v>5079000</v>
       </c>
-      <c r="K44" s="24">
-        <v>0</v>
-      </c>
-      <c r="L44" s="24">
-        <v>0</v>
-      </c>
-      <c r="M44" s="21">
-        <v>0</v>
-      </c>
-      <c r="N44" s="21">
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
+        <v>0</v>
+      </c>
+      <c r="N44" s="19">
         <v>5079000</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O44" s="19">
         <v>169229</v>
       </c>
-      <c r="P44" s="21">
+      <c r="P44" s="19">
         <v>5248229</v>
       </c>
-      <c r="Q44" s="21">
+      <c r="Q44" s="19">
         <v>169229</v>
       </c>
-      <c r="R44" s="21">
+      <c r="R44" s="19">
         <v>5079000</v>
       </c>
-      <c r="S44" s="15"/>
-      <c r="T44" s="18" t="s">
+      <c r="S44" s="13"/>
+      <c r="T44" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:20" customHeight="1" ht="40">
-      <c r="A45" s="9">
+    <row r="45" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>39</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="24">
         <v>7</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I45" s="27" t="s"/>
-      <c r="J45" s="21">
+      <c r="I45" s="24"/>
+      <c r="J45" s="19">
         <v>5079000</v>
       </c>
-      <c r="K45" s="24">
+      <c r="K45" s="22">
         <v>0.5</v>
       </c>
-      <c r="L45" s="24">
-        <v>0</v>
-      </c>
-      <c r="M45" s="21">
+      <c r="L45" s="22">
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
         <v>12698</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="19">
         <v>5066303</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="19">
         <v>168625</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="19">
         <v>5234928</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="19">
         <v>168625</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="19">
         <v>5066303</v>
       </c>
-      <c r="S45" s="15" t="s">
+      <c r="S45" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="T45" s="18"/>
-    </row>
-    <row r="46" spans="1:20" customHeight="1" ht="40">
-      <c r="A46" s="9">
+      <c r="T45" s="16"/>
+    </row>
+    <row r="46" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>40</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="24">
         <v>7</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I46" s="27" t="s"/>
-      <c r="J46" s="21">
+      <c r="I46" s="24"/>
+      <c r="J46" s="19">
         <v>5079000</v>
       </c>
-      <c r="K46" s="24">
-        <v>0</v>
-      </c>
-      <c r="L46" s="24">
-        <v>0</v>
-      </c>
-      <c r="M46" s="21">
-        <v>0</v>
-      </c>
-      <c r="N46" s="21">
+      <c r="K46" s="22">
+        <v>0</v>
+      </c>
+      <c r="L46" s="22">
+        <v>0</v>
+      </c>
+      <c r="M46" s="19">
+        <v>0</v>
+      </c>
+      <c r="N46" s="19">
         <v>5079000</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="19">
         <v>148546</v>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="19">
         <v>5227546</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q46" s="19">
         <v>148546</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="19">
         <v>5079000</v>
       </c>
-      <c r="S46" s="15"/>
-      <c r="T46" s="18" t="s">
+      <c r="S46" s="13"/>
+      <c r="T46" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:20" customHeight="1" ht="40">
-      <c r="A47" s="9">
+    <row r="47" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>41</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="24">
         <v>6</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="27" t="s"/>
-      <c r="J47" s="21">
+      <c r="I47" s="24"/>
+      <c r="J47" s="19">
         <v>3870000</v>
       </c>
-      <c r="K47" s="24">
-        <v>0</v>
-      </c>
-      <c r="L47" s="24">
-        <v>0</v>
-      </c>
-      <c r="M47" s="21">
-        <v>0</v>
-      </c>
-      <c r="N47" s="21">
+      <c r="K47" s="22">
+        <v>0</v>
+      </c>
+      <c r="L47" s="22">
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
         <v>3870000</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="19">
         <v>24546</v>
       </c>
-      <c r="P47" s="21">
+      <c r="P47" s="19">
         <v>3894546</v>
       </c>
-      <c r="Q47" s="21">
+      <c r="Q47" s="19">
         <v>24546</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="19">
         <v>3870000</v>
       </c>
-      <c r="S47" s="15" t="s">
+      <c r="S47" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="T47" s="18"/>
-    </row>
-    <row r="48" spans="1:20" customHeight="1" ht="40">
-      <c r="A48" s="9">
+      <c r="T47" s="16"/>
+    </row>
+    <row r="48" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
         <v>42</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="24">
         <v>6</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="27" t="s"/>
-      <c r="J48" s="21">
+      <c r="I48" s="24"/>
+      <c r="J48" s="19">
         <v>3870000</v>
       </c>
-      <c r="K48" s="24">
-        <v>0</v>
-      </c>
-      <c r="L48" s="24">
-        <v>0</v>
-      </c>
-      <c r="M48" s="21">
-        <v>0</v>
-      </c>
-      <c r="N48" s="21">
+      <c r="K48" s="22">
+        <v>0</v>
+      </c>
+      <c r="L48" s="22">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19">
+        <v>0</v>
+      </c>
+      <c r="N48" s="19">
         <v>3870000</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O48" s="19">
         <v>77958</v>
       </c>
-      <c r="P48" s="21">
+      <c r="P48" s="19">
         <v>3947958</v>
       </c>
-      <c r="Q48" s="21">
+      <c r="Q48" s="19">
         <v>77958</v>
       </c>
-      <c r="R48" s="21">
+      <c r="R48" s="19">
         <v>3870000</v>
       </c>
-      <c r="S48" s="15"/>
-      <c r="T48" s="18" t="s">
+      <c r="S48" s="13"/>
+      <c r="T48" s="16" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="49" spans="1:20" customHeight="1" ht="40">
-      <c r="A49" s="9">
+    <row r="49" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>43</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="24">
         <v>5</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="27" t="s"/>
-      <c r="J49" s="21">
+      <c r="I49" s="24"/>
+      <c r="J49" s="19">
         <v>3510000</v>
       </c>
-      <c r="K49" s="24">
+      <c r="K49" s="22">
         <v>3.75</v>
       </c>
-      <c r="L49" s="24">
-        <v>0</v>
-      </c>
-      <c r="M49" s="21">
+      <c r="L49" s="22">
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
         <v>65813</v>
       </c>
-      <c r="N49" s="21">
+      <c r="N49" s="19">
         <v>3444188</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O49" s="19">
         <v>86042</v>
       </c>
-      <c r="P49" s="21">
+      <c r="P49" s="19">
         <v>3530230</v>
       </c>
-      <c r="Q49" s="21">
+      <c r="Q49" s="19">
         <v>86042</v>
       </c>
-      <c r="R49" s="21">
+      <c r="R49" s="19">
         <v>3444188</v>
       </c>
-      <c r="S49" s="15" t="s">
+      <c r="S49" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="T49" s="18"/>
-    </row>
-    <row r="50" spans="1:20" customHeight="1" ht="40">
-      <c r="A50" s="9">
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
         <v>44</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="24">
         <v>5</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I50" s="27" t="s"/>
-      <c r="J50" s="21">
+      <c r="I50" s="24"/>
+      <c r="J50" s="19">
         <v>3510000</v>
       </c>
-      <c r="K50" s="24">
+      <c r="K50" s="22">
         <v>4.5</v>
       </c>
-      <c r="L50" s="24">
-        <v>0</v>
-      </c>
-      <c r="M50" s="21">
+      <c r="L50" s="22">
+        <v>0</v>
+      </c>
+      <c r="M50" s="19">
         <v>78975</v>
       </c>
-      <c r="N50" s="21">
+      <c r="N50" s="19">
         <v>3431025</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O50" s="19">
         <v>109750</v>
       </c>
-      <c r="P50" s="21">
+      <c r="P50" s="19">
         <v>3540775</v>
       </c>
-      <c r="Q50" s="21">
+      <c r="Q50" s="19">
         <v>109750</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="19">
         <v>3431025</v>
       </c>
-      <c r="S50" s="15"/>
-      <c r="T50" s="18" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="16" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:20" customHeight="1" ht="40">
-      <c r="A51" s="9">
+    <row r="51" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>45</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="24">
         <v>5</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I51" s="27" t="s"/>
-      <c r="J51" s="21">
+      <c r="I51" s="24"/>
+      <c r="J51" s="19">
         <v>3510000</v>
       </c>
-      <c r="K51" s="24">
-        <v>0</v>
-      </c>
-      <c r="L51" s="24">
-        <v>0</v>
-      </c>
-      <c r="M51" s="21">
-        <v>0</v>
-      </c>
-      <c r="N51" s="21">
+      <c r="K51" s="22">
+        <v>0</v>
+      </c>
+      <c r="L51" s="22">
+        <v>0</v>
+      </c>
+      <c r="M51" s="19">
+        <v>0</v>
+      </c>
+      <c r="N51" s="19">
         <v>3510000</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O51" s="19">
         <v>36150</v>
       </c>
-      <c r="P51" s="21">
+      <c r="P51" s="19">
         <v>3546150</v>
       </c>
-      <c r="Q51" s="21">
+      <c r="Q51" s="19">
         <v>36150</v>
       </c>
-      <c r="R51" s="21">
+      <c r="R51" s="19">
         <v>3510000</v>
       </c>
-      <c r="S51" s="15" t="s">
+      <c r="S51" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="T51" s="18"/>
-    </row>
-    <row r="52" spans="1:20" customHeight="1" ht="40">
-      <c r="A52" s="9">
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52" spans="1:20" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
         <v>46</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="24">
         <v>5</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I52" s="27" t="s"/>
-      <c r="J52" s="21">
+      <c r="I52" s="24"/>
+      <c r="J52" s="19">
         <v>3510000</v>
       </c>
-      <c r="K52" s="24">
-        <v>0</v>
-      </c>
-      <c r="L52" s="24">
-        <v>0</v>
-      </c>
-      <c r="M52" s="21">
-        <v>0</v>
-      </c>
-      <c r="N52" s="21">
+      <c r="K52" s="22">
+        <v>0</v>
+      </c>
+      <c r="L52" s="22">
+        <v>0</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0</v>
+      </c>
+      <c r="N52" s="19">
         <v>3510000</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O52" s="19">
         <v>108675</v>
       </c>
-      <c r="P52" s="21">
+      <c r="P52" s="19">
         <v>3618675</v>
       </c>
-      <c r="Q52" s="21">
+      <c r="Q52" s="19">
         <v>108675</v>
       </c>
-      <c r="R52" s="21">
+      <c r="R52" s="19">
         <v>3510000</v>
       </c>
-      <c r="S52" s="15"/>
-      <c r="T52" s="18" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="16" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="10" t="s"/>
-      <c r="B53" s="13" t="s"/>
-      <c r="C53" s="13" t="s"/>
-      <c r="D53" s="13" t="s"/>
-      <c r="E53" s="13" t="s"/>
-      <c r="F53" s="13" t="s"/>
-      <c r="G53" s="28" t="s"/>
-      <c r="H53" s="28" t="s"/>
-      <c r="I53" s="28" t="s"/>
-      <c r="J53" s="22">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="20">
         <v>354604000</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="29">
         <v>0.26</v>
       </c>
-      <c r="L53" s="25"/>
-      <c r="M53" s="22">
+      <c r="L53" s="29"/>
+      <c r="M53" s="20">
         <v>924729</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="20">
         <v>353679279</v>
       </c>
-      <c r="O53" s="22">
+      <c r="O53" s="20">
         <v>28590281</v>
       </c>
-      <c r="P53" s="22">
+      <c r="P53" s="20">
         <v>382269560</v>
       </c>
-      <c r="Q53" s="22">
+      <c r="Q53" s="20">
         <v>28590281</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="20">
         <v>353679279</v>
       </c>
-      <c r="S53" s="16" t="s"/>
-      <c r="T53" s="19" t="s"/>
-    </row>
-    <row r="55" spans="1:20">
-      <c r="B55" t="s">
+      <c r="S53" s="14"/>
+      <c r="T53" s="17"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="I55" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="I55" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="P55" t="s">
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="P55" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="Q55"/>
-      <c r="R55"/>
-    </row>
-    <row r="56" spans="1:20">
-      <c r="B56" t="s">
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="I56" t="s">
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="I56" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="P56" t="s">
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="P56" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="Q56"/>
-      <c r="R56"/>
-    </row>
-    <row r="58" spans="1:20">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-    </row>
-    <row r="61" spans="1:20">
-      <c r="B61" t="s">
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B61" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="I61" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="I61" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="P61" t="s">
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="P61" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="Q61"/>
-      <c r="R61"/>
-    </row>
-    <row r="62" spans="1:20">
-      <c r="B62" t="s">
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B62" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="I62" t="s">
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="I62" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="P62" t="s">
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="P62" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="Q62"/>
-      <c r="R62"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="20">
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="I62:N62"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="K53:L53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I56:N56"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="I62:N62"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" orientation="landscape" scale="100" fitToHeight="0" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
+  <pageSetup paperSize="14" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;Y&amp;I&amp;BHal &amp;P / &amp;N&amp;R&amp;Y&amp;I&amp;Bkomdanas tterima 2023 6 1300400251 NO. AB90-0803-70EF-85B2</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>